--- a/Documentos/Gastos.xlsx
+++ b/Documentos/Gastos.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victoria\Documents\EGC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victoria\Documents\GitHub\Finanzas\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5400" windowWidth="20490" windowHeight="7665" xr2:uid="{71B5E48D-501C-4FA5-B5E6-5ACCACAA4109}"/>
+    <workbookView xWindow="0" yWindow="6300" windowWidth="20490" windowHeight="7665" xr2:uid="{71B5E48D-501C-4FA5-B5E6-5ACCACAA4109}"/>
   </bookViews>
   <sheets>
     <sheet name="Saldo cuenta" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
   <si>
     <t>Importe</t>
   </si>
@@ -122,6 +122,12 @@
   </si>
   <si>
     <t>Ponencia</t>
+  </si>
+  <si>
+    <t>Préstamo</t>
+  </si>
+  <si>
+    <t>Devolución del préstamo</t>
   </si>
 </sst>
 </file>
@@ -267,7 +273,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -316,6 +322,14 @@
     <xf numFmtId="8" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="8" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -324,13 +338,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="8" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -645,10 +655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FAE2411-29EE-4392-BB78-CADCC51C7E8B}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="A1:E20"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -873,79 +883,79 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="16">
+        <v>32</v>
+      </c>
+      <c r="B13" s="26">
         <v>43048</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="20">
-        <v>196</v>
+        <v>14</v>
+      </c>
+      <c r="D13" s="27">
+        <v>37.159999999999997</v>
       </c>
       <c r="E13" s="21">
-        <f>E12+D13</f>
-        <v>164.32</v>
+        <f>SUM(E12,D13)</f>
+        <v>5.4799999999999969</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B14" s="17">
         <v>43048</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="9">
-        <v>-4.0999999999999996</v>
-      </c>
-      <c r="E14" s="10">
-        <f>E13+D14</f>
-        <v>160.22</v>
+        <v>22</v>
+      </c>
+      <c r="D14" s="18">
+        <v>231</v>
+      </c>
+      <c r="E14" s="19">
+        <f>SUM(E13,D14)</f>
+        <v>236.48</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B15" s="16">
         <v>43048</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D15" s="14">
-        <v>-2.02</v>
-      </c>
-      <c r="E15" s="15">
-        <f t="shared" ref="E15:E20" si="1">E14+D15</f>
-        <v>158.19999999999999</v>
+        <v>-4.0999999999999996</v>
+      </c>
+      <c r="E15" s="21">
+        <f>SUM(E14,D15)</f>
+        <v>232.38</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16" s="17">
         <v>43048</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D16" s="9">
-        <v>-3.3</v>
-      </c>
-      <c r="E16" s="10">
-        <f t="shared" si="1"/>
-        <v>154.89999999999998</v>
+        <v>-2.02</v>
+      </c>
+      <c r="E16" s="19">
+        <f t="shared" ref="E16:E22" si="1">SUM(E15,D16)</f>
+        <v>230.35999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" s="16">
         <v>43048</v>
@@ -954,65 +964,101 @@
         <v>24</v>
       </c>
       <c r="D17" s="14">
-        <v>-5</v>
-      </c>
-      <c r="E17" s="15">
+        <v>-3.3</v>
+      </c>
+      <c r="E17" s="21">
         <f t="shared" si="1"/>
-        <v>149.89999999999998</v>
+        <v>227.05999999999997</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18" s="17">
         <v>43048</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D18" s="9">
-        <v>36</v>
-      </c>
-      <c r="E18" s="10">
+        <v>-5</v>
+      </c>
+      <c r="E18" s="19">
         <f t="shared" si="1"/>
-        <v>185.89999999999998</v>
+        <v>222.05999999999997</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19" s="16">
         <v>43048</v>
       </c>
       <c r="C19" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="14">
+        <v>36</v>
+      </c>
+      <c r="E19" s="21">
+        <f t="shared" si="1"/>
+        <v>258.05999999999995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="17">
+        <v>43048</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D20" s="9">
         <v>-36.51</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E20" s="19">
         <f t="shared" si="1"/>
-        <v>149.38999999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="22" t="s">
+        <v>221.54999999999995</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="16">
+        <v>43048</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="14">
+        <v>-37.159999999999997</v>
+      </c>
+      <c r="E21" s="21">
+        <f t="shared" si="1"/>
+        <v>184.38999999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="23">
+      <c r="B22" s="29">
         <v>43072</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C22" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="25">
+      <c r="D22" s="31">
         <v>300</v>
       </c>
-      <c r="E20" s="26">
+      <c r="E22" s="32">
         <f t="shared" si="1"/>
-        <v>449.39</v>
+        <v>484.39</v>
       </c>
     </row>
   </sheetData>
@@ -1031,16 +1077,16 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="27"/>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
+      <c r="A1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="29"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>

--- a/Documentos/Gastos.xlsx
+++ b/Documentos/Gastos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="6300" windowWidth="20490" windowHeight="7665" xr2:uid="{71B5E48D-501C-4FA5-B5E6-5ACCACAA4109}"/>
+    <workbookView xWindow="0" yWindow="6750" windowWidth="20490" windowHeight="7665" xr2:uid="{71B5E48D-501C-4FA5-B5E6-5ACCACAA4109}"/>
   </bookViews>
   <sheets>
     <sheet name="Saldo cuenta" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
   <si>
     <t>Importe</t>
   </si>
@@ -128,6 +128,12 @@
   </si>
   <si>
     <t>Devolución del préstamo</t>
+  </si>
+  <si>
+    <t>Otros conceptos</t>
+  </si>
+  <si>
+    <t>Otros</t>
   </si>
 </sst>
 </file>
@@ -273,7 +279,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -328,18 +334,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="8" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -655,10 +667,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FAE2411-29EE-4392-BB78-CADCC51C7E8B}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -885,18 +897,18 @@
       <c r="A13" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="26">
+      <c r="B13" s="27">
         <v>43048</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="27">
-        <v>37.159999999999997</v>
+      <c r="D13" s="26">
+        <v>36</v>
       </c>
       <c r="E13" s="21">
         <f>SUM(E12,D13)</f>
-        <v>5.4799999999999969</v>
+        <v>4.32</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -914,7 +926,7 @@
       </c>
       <c r="E14" s="19">
         <f>SUM(E13,D14)</f>
-        <v>236.48</v>
+        <v>235.32</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -932,7 +944,7 @@
       </c>
       <c r="E15" s="21">
         <f>SUM(E14,D15)</f>
-        <v>232.38</v>
+        <v>231.22</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -949,8 +961,8 @@
         <v>-2.02</v>
       </c>
       <c r="E16" s="19">
-        <f t="shared" ref="E16:E22" si="1">SUM(E15,D16)</f>
-        <v>230.35999999999999</v>
+        <f t="shared" ref="E16:E23" si="1">SUM(E15,D16)</f>
+        <v>229.2</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -968,7 +980,7 @@
       </c>
       <c r="E17" s="21">
         <f t="shared" si="1"/>
-        <v>227.05999999999997</v>
+        <v>225.89999999999998</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -986,7 +998,7 @@
       </c>
       <c r="E18" s="19">
         <f t="shared" si="1"/>
-        <v>222.05999999999997</v>
+        <v>220.89999999999998</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1004,7 +1016,7 @@
       </c>
       <c r="E19" s="21">
         <f t="shared" si="1"/>
-        <v>258.05999999999995</v>
+        <v>256.89999999999998</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1022,7 +1034,7 @@
       </c>
       <c r="E20" s="19">
         <f t="shared" si="1"/>
-        <v>221.54999999999995</v>
+        <v>220.39</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1036,29 +1048,47 @@
         <v>14</v>
       </c>
       <c r="D21" s="14">
-        <v>-37.159999999999997</v>
+        <v>-36</v>
       </c>
       <c r="E21" s="21">
         <f t="shared" si="1"/>
-        <v>184.38999999999996</v>
+        <v>184.39</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="28" t="s">
+      <c r="A22" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="34">
+        <v>43052</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="28">
+        <v>5.48</v>
+      </c>
+      <c r="E22" s="19">
+        <f t="shared" si="1"/>
+        <v>189.86999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="29">
+      <c r="B23" s="30">
         <v>43072</v>
       </c>
-      <c r="C22" s="30" t="s">
+      <c r="C23" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="31">
+      <c r="D23" s="32">
         <v>300</v>
       </c>
-      <c r="E22" s="32">
+      <c r="E23" s="33">
         <f t="shared" si="1"/>
-        <v>484.39</v>
+        <v>489.87</v>
       </c>
     </row>
   </sheetData>
